--- a/Documentation/Dossier FV_Mounir.xlsx
+++ b/Documentation/Dossier FV_Mounir.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="23715" windowHeight="9780"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="20730" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>code client</t>
   </si>
@@ -27,9 +27,6 @@
     <t>etat client</t>
   </si>
   <si>
-    <t>type client</t>
-  </si>
-  <si>
     <t>liste</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>IP utilisateur</t>
-  </si>
-  <si>
     <t>Date communication</t>
   </si>
   <si>
@@ -145,16 +139,41 @@
   </si>
   <si>
     <t>Historique communication</t>
+  </si>
+  <si>
+    <t>incrémental année</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>table de parametrage</t>
+  </si>
+  <si>
+    <t>type d'installation</t>
+  </si>
+  <si>
+    <t>algo mf chez sofiene</t>
+  </si>
+  <si>
+    <t>IP utilisateur / Nom de la machine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -182,13 +201,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,256 +519,429 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G15" s="2"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
+      <c r="D26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>42</v>
-      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
